--- a/Comp skills.xlsx
+++ b/Comp skills.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Dropbox\Job portfolio\Online Resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Documents\GitHub\bedmac.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>C</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Andriod Studio</t>
+  </si>
+  <si>
+    <t>word</t>
   </si>
 </sst>
 </file>
@@ -215,35 +224,13 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-DE7E-4E97-B717-E2F075526212}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -263,7 +250,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -285,8 +272,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -301,42 +289,20 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-DE7E-4E97-B717-E2F075526212}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-DE7E-4E97-B717-E2F075526212}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -344,7 +310,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -363,7 +329,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -382,7 +348,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -401,7 +367,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -420,7 +386,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -433,11 +399,39 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$15</c:f>
+              <c:f>Sheet1!$A$1:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>C</c:v>
                 </c:pt>
@@ -448,39 +442,45 @@
                   <c:v>Matlab</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Andriod Studio</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>JavaScript</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>HTML </c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS </c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>GitHub</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>C#</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Assembly</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Microsoft Office</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Python</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Ruby</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Microsoft Windows</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>Apple</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>Linux</c:v>
                 </c:pt>
               </c:strCache>
@@ -488,10 +488,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$15</c:f>
+              <c:f>Sheet1!$B$1:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -502,39 +502,45 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1291,12 +1297,18 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1327,7 +1339,13 @@
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D3CBE7-8574-43BD-8BE4-54F00B357277}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
@@ -1648,18 +1666,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1675,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1683,100 +1701,121 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
